--- a/env/results.xlsx
+++ b/env/results.xlsx
@@ -55,7 +55,7 @@
     <t>learning rate</t>
   </si>
   <si>
-    <t>max episodes</t>
+    <t>max frames</t>
   </si>
   <si>
     <t>tf.nn.relu</t>
@@ -428,40 +428,28 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1">
-        <v>-2687</v>
+        <v>-2177</v>
       </c>
       <c r="B1">
-        <v>-1865</v>
+        <v>-1955</v>
       </c>
       <c r="C1">
-        <v>-2119</v>
+        <v>-1836</v>
       </c>
       <c r="D1">
-        <v>-1844</v>
+        <v>-1363</v>
       </c>
       <c r="E1">
-        <v>-2565</v>
+        <v>-1297</v>
       </c>
       <c r="F1">
-        <v>-2191</v>
+        <v>-989</v>
       </c>
       <c r="G1">
-        <v>-2334</v>
+        <v>-560</v>
       </c>
       <c r="H1">
-        <v>-1634</v>
-      </c>
-      <c r="I1">
-        <v>-2067</v>
-      </c>
-      <c r="J1">
-        <v>-1810</v>
-      </c>
-      <c r="K1">
-        <v>-1699</v>
-      </c>
-      <c r="L1">
-        <v>-1820</v>
+        <v>-426</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -549,7 +537,7 @@
         <v>0.00025</v>
       </c>
       <c r="N4">
-        <v>7500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -557,7 +545,7 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>-1634</v>
+        <v>-426</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -565,13 +553,13 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>626.25</v>
+        <v>698.125</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
       </c>
       <c r="D8">
-        <v>584</v>
+        <v>777</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -579,25 +567,25 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
       </c>
       <c r="F9">
-        <v>814</v>
+        <v>912</v>
       </c>
       <c r="G9" t="s">
         <v>24</v>
       </c>
       <c r="H9">
-        <v>105</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/env/results.xlsx
+++ b/env/results.xlsx
@@ -420,39 +420,2835 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:AJD9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:940">
       <c r="A1">
-        <v>-2177</v>
+        <v>-170</v>
       </c>
       <c r="B1">
-        <v>-1955</v>
+        <v>-194</v>
       </c>
       <c r="C1">
-        <v>-1836</v>
+        <v>-166</v>
       </c>
       <c r="D1">
-        <v>-1363</v>
+        <v>-186</v>
       </c>
       <c r="E1">
-        <v>-1297</v>
+        <v>-149</v>
       </c>
       <c r="F1">
-        <v>-989</v>
+        <v>-149</v>
       </c>
       <c r="G1">
-        <v>-560</v>
+        <v>-144</v>
       </c>
       <c r="H1">
-        <v>-426</v>
+        <v>-152</v>
+      </c>
+      <c r="I1">
+        <v>-158</v>
+      </c>
+      <c r="J1">
+        <v>-130</v>
+      </c>
+      <c r="K1">
+        <v>-161</v>
+      </c>
+      <c r="L1">
+        <v>-190</v>
+      </c>
+      <c r="M1">
+        <v>-144</v>
+      </c>
+      <c r="N1">
+        <v>-184</v>
+      </c>
+      <c r="O1">
+        <v>-136</v>
+      </c>
+      <c r="P1">
+        <v>-188</v>
+      </c>
+      <c r="Q1">
+        <v>-177</v>
+      </c>
+      <c r="R1">
+        <v>-150</v>
+      </c>
+      <c r="S1">
+        <v>-205</v>
+      </c>
+      <c r="T1">
+        <v>-182</v>
+      </c>
+      <c r="U1">
+        <v>-171</v>
+      </c>
+      <c r="V1">
+        <v>-181</v>
+      </c>
+      <c r="W1">
+        <v>-195</v>
+      </c>
+      <c r="X1">
+        <v>-153</v>
+      </c>
+      <c r="Y1">
+        <v>-158</v>
+      </c>
+      <c r="Z1">
+        <v>-173</v>
+      </c>
+      <c r="AA1">
+        <v>-196</v>
+      </c>
+      <c r="AB1">
+        <v>-177</v>
+      </c>
+      <c r="AC1">
+        <v>-141</v>
+      </c>
+      <c r="AD1">
+        <v>-160</v>
+      </c>
+      <c r="AE1">
+        <v>-154</v>
+      </c>
+      <c r="AF1">
+        <v>-144</v>
+      </c>
+      <c r="AG1">
+        <v>-168</v>
+      </c>
+      <c r="AH1">
+        <v>-173</v>
+      </c>
+      <c r="AI1">
+        <v>-150</v>
+      </c>
+      <c r="AJ1">
+        <v>-200</v>
+      </c>
+      <c r="AK1">
+        <v>-167</v>
+      </c>
+      <c r="AL1">
+        <v>-163</v>
+      </c>
+      <c r="AM1">
+        <v>-147</v>
+      </c>
+      <c r="AN1">
+        <v>-160</v>
+      </c>
+      <c r="AO1">
+        <v>-156</v>
+      </c>
+      <c r="AP1">
+        <v>-136</v>
+      </c>
+      <c r="AQ1">
+        <v>-158</v>
+      </c>
+      <c r="AR1">
+        <v>-179</v>
+      </c>
+      <c r="AS1">
+        <v>-169</v>
+      </c>
+      <c r="AT1">
+        <v>-190</v>
+      </c>
+      <c r="AU1">
+        <v>-164</v>
+      </c>
+      <c r="AV1">
+        <v>-149</v>
+      </c>
+      <c r="AW1">
+        <v>-205</v>
+      </c>
+      <c r="AX1">
+        <v>-171</v>
+      </c>
+      <c r="AY1">
+        <v>-179</v>
+      </c>
+      <c r="AZ1">
+        <v>-202</v>
+      </c>
+      <c r="BA1">
+        <v>-173</v>
+      </c>
+      <c r="BB1">
+        <v>-205</v>
+      </c>
+      <c r="BC1">
+        <v>-154</v>
+      </c>
+      <c r="BD1">
+        <v>-210</v>
+      </c>
+      <c r="BE1">
+        <v>-158</v>
+      </c>
+      <c r="BF1">
+        <v>-163</v>
+      </c>
+      <c r="BG1">
+        <v>-163</v>
+      </c>
+      <c r="BH1">
+        <v>-163</v>
+      </c>
+      <c r="BI1">
+        <v>-184</v>
+      </c>
+      <c r="BJ1">
+        <v>-161</v>
+      </c>
+      <c r="BK1">
+        <v>-212</v>
+      </c>
+      <c r="BL1">
+        <v>-194</v>
+      </c>
+      <c r="BM1">
+        <v>-172</v>
+      </c>
+      <c r="BN1">
+        <v>-163</v>
+      </c>
+      <c r="BO1">
+        <v>-170</v>
+      </c>
+      <c r="BP1">
+        <v>-132</v>
+      </c>
+      <c r="BQ1">
+        <v>-201</v>
+      </c>
+      <c r="BR1">
+        <v>-154</v>
+      </c>
+      <c r="BS1">
+        <v>-180</v>
+      </c>
+      <c r="BT1">
+        <v>-195</v>
+      </c>
+      <c r="BU1">
+        <v>-184</v>
+      </c>
+      <c r="BV1">
+        <v>-165</v>
+      </c>
+      <c r="BW1">
+        <v>-163</v>
+      </c>
+      <c r="BX1">
+        <v>-177</v>
+      </c>
+      <c r="BY1">
+        <v>-149</v>
+      </c>
+      <c r="BZ1">
+        <v>-182</v>
+      </c>
+      <c r="CA1">
+        <v>-146</v>
+      </c>
+      <c r="CB1">
+        <v>-182</v>
+      </c>
+      <c r="CC1">
+        <v>-159</v>
+      </c>
+      <c r="CD1">
+        <v>-147</v>
+      </c>
+      <c r="CE1">
+        <v>-150</v>
+      </c>
+      <c r="CF1">
+        <v>-170</v>
+      </c>
+      <c r="CG1">
+        <v>-191</v>
+      </c>
+      <c r="CH1">
+        <v>-153</v>
+      </c>
+      <c r="CI1">
+        <v>-158</v>
+      </c>
+      <c r="CJ1">
+        <v>-173</v>
+      </c>
+      <c r="CK1">
+        <v>-148</v>
+      </c>
+      <c r="CL1">
+        <v>-185</v>
+      </c>
+      <c r="CM1">
+        <v>-189</v>
+      </c>
+      <c r="CN1">
+        <v>-182</v>
+      </c>
+      <c r="CO1">
+        <v>-160</v>
+      </c>
+      <c r="CP1">
+        <v>-184</v>
+      </c>
+      <c r="CQ1">
+        <v>-180</v>
+      </c>
+      <c r="CR1">
+        <v>-141</v>
+      </c>
+      <c r="CS1">
+        <v>-142</v>
+      </c>
+      <c r="CT1">
+        <v>-172</v>
+      </c>
+      <c r="CU1">
+        <v>-177</v>
+      </c>
+      <c r="CV1">
+        <v>-163</v>
+      </c>
+      <c r="CW1">
+        <v>-156</v>
+      </c>
+      <c r="CX1">
+        <v>-141</v>
+      </c>
+      <c r="CY1">
+        <v>-163</v>
+      </c>
+      <c r="CZ1">
+        <v>-197</v>
+      </c>
+      <c r="DA1">
+        <v>-135</v>
+      </c>
+      <c r="DB1">
+        <v>-204</v>
+      </c>
+      <c r="DC1">
+        <v>-179</v>
+      </c>
+      <c r="DD1">
+        <v>-141</v>
+      </c>
+      <c r="DE1">
+        <v>-177</v>
+      </c>
+      <c r="DF1">
+        <v>-138</v>
+      </c>
+      <c r="DG1">
+        <v>-197</v>
+      </c>
+      <c r="DH1">
+        <v>-160</v>
+      </c>
+      <c r="DI1">
+        <v>-161</v>
+      </c>
+      <c r="DJ1">
+        <v>-170</v>
+      </c>
+      <c r="DK1">
+        <v>-169</v>
+      </c>
+      <c r="DL1">
+        <v>-160</v>
+      </c>
+      <c r="DM1">
+        <v>-176</v>
+      </c>
+      <c r="DN1">
+        <v>-176</v>
+      </c>
+      <c r="DO1">
+        <v>-164</v>
+      </c>
+      <c r="DP1">
+        <v>-168</v>
+      </c>
+      <c r="DQ1">
+        <v>-139</v>
+      </c>
+      <c r="DR1">
+        <v>-174</v>
+      </c>
+      <c r="DS1">
+        <v>-166</v>
+      </c>
+      <c r="DT1">
+        <v>-159</v>
+      </c>
+      <c r="DU1">
+        <v>-156</v>
+      </c>
+      <c r="DV1">
+        <v>-165</v>
+      </c>
+      <c r="DW1">
+        <v>-173</v>
+      </c>
+      <c r="DX1">
+        <v>-178</v>
+      </c>
+      <c r="DY1">
+        <v>-177</v>
+      </c>
+      <c r="DZ1">
+        <v>-163</v>
+      </c>
+      <c r="EA1">
+        <v>-180</v>
+      </c>
+      <c r="EB1">
+        <v>-175</v>
+      </c>
+      <c r="EC1">
+        <v>-190</v>
+      </c>
+      <c r="ED1">
+        <v>-171</v>
+      </c>
+      <c r="EE1">
+        <v>-209</v>
+      </c>
+      <c r="EF1">
+        <v>-178</v>
+      </c>
+      <c r="EG1">
+        <v>-199</v>
+      </c>
+      <c r="EH1">
+        <v>-166</v>
+      </c>
+      <c r="EI1">
+        <v>-163</v>
+      </c>
+      <c r="EJ1">
+        <v>-138</v>
+      </c>
+      <c r="EK1">
+        <v>-145</v>
+      </c>
+      <c r="EL1">
+        <v>-198</v>
+      </c>
+      <c r="EM1">
+        <v>-156</v>
+      </c>
+      <c r="EN1">
+        <v>-135</v>
+      </c>
+      <c r="EO1">
+        <v>-152</v>
+      </c>
+      <c r="EP1">
+        <v>-146</v>
+      </c>
+      <c r="EQ1">
+        <v>-207</v>
+      </c>
+      <c r="ER1">
+        <v>-135</v>
+      </c>
+      <c r="ES1">
+        <v>-192</v>
+      </c>
+      <c r="ET1">
+        <v>-163</v>
+      </c>
+      <c r="EU1">
+        <v>-147</v>
+      </c>
+      <c r="EV1">
+        <v>-154</v>
+      </c>
+      <c r="EW1">
+        <v>-170</v>
+      </c>
+      <c r="EX1">
+        <v>-162</v>
+      </c>
+      <c r="EY1">
+        <v>-156</v>
+      </c>
+      <c r="EZ1">
+        <v>-152</v>
+      </c>
+      <c r="FA1">
+        <v>-160</v>
+      </c>
+      <c r="FB1">
+        <v>-151</v>
+      </c>
+      <c r="FC1">
+        <v>-159</v>
+      </c>
+      <c r="FD1">
+        <v>-189</v>
+      </c>
+      <c r="FE1">
+        <v>-147</v>
+      </c>
+      <c r="FF1">
+        <v>-160</v>
+      </c>
+      <c r="FG1">
+        <v>-142</v>
+      </c>
+      <c r="FH1">
+        <v>-182</v>
+      </c>
+      <c r="FI1">
+        <v>-178</v>
+      </c>
+      <c r="FJ1">
+        <v>-203</v>
+      </c>
+      <c r="FK1">
+        <v>-157</v>
+      </c>
+      <c r="FL1">
+        <v>-187</v>
+      </c>
+      <c r="FM1">
+        <v>-135</v>
+      </c>
+      <c r="FN1">
+        <v>-178</v>
+      </c>
+      <c r="FO1">
+        <v>-157</v>
+      </c>
+      <c r="FP1">
+        <v>-168</v>
+      </c>
+      <c r="FQ1">
+        <v>-180</v>
+      </c>
+      <c r="FR1">
+        <v>-164</v>
+      </c>
+      <c r="FS1">
+        <v>-177</v>
+      </c>
+      <c r="FT1">
+        <v>-168</v>
+      </c>
+      <c r="FU1">
+        <v>-185</v>
+      </c>
+      <c r="FV1">
+        <v>-159</v>
+      </c>
+      <c r="FW1">
+        <v>-188</v>
+      </c>
+      <c r="FX1">
+        <v>-141</v>
+      </c>
+      <c r="FY1">
+        <v>-142</v>
+      </c>
+      <c r="FZ1">
+        <v>-162</v>
+      </c>
+      <c r="GA1">
+        <v>-178</v>
+      </c>
+      <c r="GB1">
+        <v>-182</v>
+      </c>
+      <c r="GC1">
+        <v>-186</v>
+      </c>
+      <c r="GD1">
+        <v>-163</v>
+      </c>
+      <c r="GE1">
+        <v>-190</v>
+      </c>
+      <c r="GF1">
+        <v>-174</v>
+      </c>
+      <c r="GG1">
+        <v>-158</v>
+      </c>
+      <c r="GH1">
+        <v>-185</v>
+      </c>
+      <c r="GI1">
+        <v>-197</v>
+      </c>
+      <c r="GJ1">
+        <v>-178</v>
+      </c>
+      <c r="GK1">
+        <v>-158</v>
+      </c>
+      <c r="GL1">
+        <v>-187</v>
+      </c>
+      <c r="GM1">
+        <v>-156</v>
+      </c>
+      <c r="GN1">
+        <v>-198</v>
+      </c>
+      <c r="GO1">
+        <v>-175</v>
+      </c>
+      <c r="GP1">
+        <v>-171</v>
+      </c>
+      <c r="GQ1">
+        <v>-184</v>
+      </c>
+      <c r="GR1">
+        <v>-162</v>
+      </c>
+      <c r="GS1">
+        <v>-160</v>
+      </c>
+      <c r="GT1">
+        <v>-187</v>
+      </c>
+      <c r="GU1">
+        <v>-178</v>
+      </c>
+      <c r="GV1">
+        <v>-153</v>
+      </c>
+      <c r="GW1">
+        <v>-170</v>
+      </c>
+      <c r="GX1">
+        <v>-154</v>
+      </c>
+      <c r="GY1">
+        <v>-175</v>
+      </c>
+      <c r="GZ1">
+        <v>-160</v>
+      </c>
+      <c r="HA1">
+        <v>-202</v>
+      </c>
+      <c r="HB1">
+        <v>-144</v>
+      </c>
+      <c r="HC1">
+        <v>-161</v>
+      </c>
+      <c r="HD1">
+        <v>-186</v>
+      </c>
+      <c r="HE1">
+        <v>-204</v>
+      </c>
+      <c r="HF1">
+        <v>-189</v>
+      </c>
+      <c r="HG1">
+        <v>-183</v>
+      </c>
+      <c r="HH1">
+        <v>-175</v>
+      </c>
+      <c r="HI1">
+        <v>-167</v>
+      </c>
+      <c r="HJ1">
+        <v>-170</v>
+      </c>
+      <c r="HK1">
+        <v>-156</v>
+      </c>
+      <c r="HL1">
+        <v>-148</v>
+      </c>
+      <c r="HM1">
+        <v>-172</v>
+      </c>
+      <c r="HN1">
+        <v>-190</v>
+      </c>
+      <c r="HO1">
+        <v>-175</v>
+      </c>
+      <c r="HP1">
+        <v>-154</v>
+      </c>
+      <c r="HQ1">
+        <v>-145</v>
+      </c>
+      <c r="HR1">
+        <v>-227</v>
+      </c>
+      <c r="HS1">
+        <v>-158</v>
+      </c>
+      <c r="HT1">
+        <v>-172</v>
+      </c>
+      <c r="HU1">
+        <v>-174</v>
+      </c>
+      <c r="HV1">
+        <v>-151</v>
+      </c>
+      <c r="HW1">
+        <v>-130</v>
+      </c>
+      <c r="HX1">
+        <v>-182</v>
+      </c>
+      <c r="HY1">
+        <v>-161</v>
+      </c>
+      <c r="HZ1">
+        <v>-149</v>
+      </c>
+      <c r="IA1">
+        <v>-213</v>
+      </c>
+      <c r="IB1">
+        <v>-161</v>
+      </c>
+      <c r="IC1">
+        <v>-186</v>
+      </c>
+      <c r="ID1">
+        <v>-163</v>
+      </c>
+      <c r="IE1">
+        <v>-161</v>
+      </c>
+      <c r="IF1">
+        <v>-168</v>
+      </c>
+      <c r="IG1">
+        <v>-173</v>
+      </c>
+      <c r="IH1">
+        <v>-188</v>
+      </c>
+      <c r="II1">
+        <v>-158</v>
+      </c>
+      <c r="IJ1">
+        <v>-169</v>
+      </c>
+      <c r="IK1">
+        <v>-178</v>
+      </c>
+      <c r="IL1">
+        <v>-161</v>
+      </c>
+      <c r="IM1">
+        <v>-182</v>
+      </c>
+      <c r="IN1">
+        <v>-144</v>
+      </c>
+      <c r="IO1">
+        <v>-170</v>
+      </c>
+      <c r="IP1">
+        <v>-183</v>
+      </c>
+      <c r="IQ1">
+        <v>-184</v>
+      </c>
+      <c r="IR1">
+        <v>-160</v>
+      </c>
+      <c r="IS1">
+        <v>-149</v>
+      </c>
+      <c r="IT1">
+        <v>-145</v>
+      </c>
+      <c r="IU1">
+        <v>-197</v>
+      </c>
+      <c r="IV1">
+        <v>-220</v>
+      </c>
+      <c r="IW1">
+        <v>-171</v>
+      </c>
+      <c r="IX1">
+        <v>-177</v>
+      </c>
+      <c r="IY1">
+        <v>-178</v>
+      </c>
+      <c r="IZ1">
+        <v>-163</v>
+      </c>
+      <c r="JA1">
+        <v>-197</v>
+      </c>
+      <c r="JB1">
+        <v>-169</v>
+      </c>
+      <c r="JC1">
+        <v>-125</v>
+      </c>
+      <c r="JD1">
+        <v>-142</v>
+      </c>
+      <c r="JE1">
+        <v>-163</v>
+      </c>
+      <c r="JF1">
+        <v>-148</v>
+      </c>
+      <c r="JG1">
+        <v>-125</v>
+      </c>
+      <c r="JH1">
+        <v>-147</v>
+      </c>
+      <c r="JI1">
+        <v>-187</v>
+      </c>
+      <c r="JJ1">
+        <v>-179</v>
+      </c>
+      <c r="JK1">
+        <v>-187</v>
+      </c>
+      <c r="JL1">
+        <v>-156</v>
+      </c>
+      <c r="JM1">
+        <v>-159</v>
+      </c>
+      <c r="JN1">
+        <v>-193</v>
+      </c>
+      <c r="JO1">
+        <v>-206</v>
+      </c>
+      <c r="JP1">
+        <v>-195</v>
+      </c>
+      <c r="JQ1">
+        <v>-167</v>
+      </c>
+      <c r="JR1">
+        <v>-153</v>
+      </c>
+      <c r="JS1">
+        <v>-187</v>
+      </c>
+      <c r="JT1">
+        <v>-135</v>
+      </c>
+      <c r="JU1">
+        <v>-192</v>
+      </c>
+      <c r="JV1">
+        <v>-164</v>
+      </c>
+      <c r="JW1">
+        <v>-183</v>
+      </c>
+      <c r="JX1">
+        <v>-190</v>
+      </c>
+      <c r="JY1">
+        <v>-165</v>
+      </c>
+      <c r="JZ1">
+        <v>-207</v>
+      </c>
+      <c r="KA1">
+        <v>-205</v>
+      </c>
+      <c r="KB1">
+        <v>-132</v>
+      </c>
+      <c r="KC1">
+        <v>-173</v>
+      </c>
+      <c r="KD1">
+        <v>-170</v>
+      </c>
+      <c r="KE1">
+        <v>-195</v>
+      </c>
+      <c r="KF1">
+        <v>-210</v>
+      </c>
+      <c r="KG1">
+        <v>-170</v>
+      </c>
+      <c r="KH1">
+        <v>-156</v>
+      </c>
+      <c r="KI1">
+        <v>-170</v>
+      </c>
+      <c r="KJ1">
+        <v>-195</v>
+      </c>
+      <c r="KK1">
+        <v>-166</v>
+      </c>
+      <c r="KL1">
+        <v>-152</v>
+      </c>
+      <c r="KM1">
+        <v>-163</v>
+      </c>
+      <c r="KN1">
+        <v>-197</v>
+      </c>
+      <c r="KO1">
+        <v>-157</v>
+      </c>
+      <c r="KP1">
+        <v>-197</v>
+      </c>
+      <c r="KQ1">
+        <v>-175</v>
+      </c>
+      <c r="KR1">
+        <v>-126</v>
+      </c>
+      <c r="KS1">
+        <v>-172</v>
+      </c>
+      <c r="KT1">
+        <v>-182</v>
+      </c>
+      <c r="KU1">
+        <v>-166</v>
+      </c>
+      <c r="KV1">
+        <v>-174</v>
+      </c>
+      <c r="KW1">
+        <v>-184</v>
+      </c>
+      <c r="KX1">
+        <v>-178</v>
+      </c>
+      <c r="KY1">
+        <v>-204</v>
+      </c>
+      <c r="KZ1">
+        <v>-154</v>
+      </c>
+      <c r="LA1">
+        <v>-179</v>
+      </c>
+      <c r="LB1">
+        <v>-158</v>
+      </c>
+      <c r="LC1">
+        <v>-178</v>
+      </c>
+      <c r="LD1">
+        <v>-167</v>
+      </c>
+      <c r="LE1">
+        <v>-137</v>
+      </c>
+      <c r="LF1">
+        <v>-130</v>
+      </c>
+      <c r="LG1">
+        <v>-165</v>
+      </c>
+      <c r="LH1">
+        <v>-167</v>
+      </c>
+      <c r="LI1">
+        <v>-171</v>
+      </c>
+      <c r="LJ1">
+        <v>-172</v>
+      </c>
+      <c r="LK1">
+        <v>-162</v>
+      </c>
+      <c r="LL1">
+        <v>-175</v>
+      </c>
+      <c r="LM1">
+        <v>-179</v>
+      </c>
+      <c r="LN1">
+        <v>-178</v>
+      </c>
+      <c r="LO1">
+        <v>-153</v>
+      </c>
+      <c r="LP1">
+        <v>-173</v>
+      </c>
+      <c r="LQ1">
+        <v>-219</v>
+      </c>
+      <c r="LR1">
+        <v>-138</v>
+      </c>
+      <c r="LS1">
+        <v>-173</v>
+      </c>
+      <c r="LT1">
+        <v>-164</v>
+      </c>
+      <c r="LU1">
+        <v>-179</v>
+      </c>
+      <c r="LV1">
+        <v>-205</v>
+      </c>
+      <c r="LW1">
+        <v>-199</v>
+      </c>
+      <c r="LX1">
+        <v>-202</v>
+      </c>
+      <c r="LY1">
+        <v>-175</v>
+      </c>
+      <c r="LZ1">
+        <v>-187</v>
+      </c>
+      <c r="MA1">
+        <v>-174</v>
+      </c>
+      <c r="MB1">
+        <v>-128</v>
+      </c>
+      <c r="MC1">
+        <v>-185</v>
+      </c>
+      <c r="MD1">
+        <v>-192</v>
+      </c>
+      <c r="ME1">
+        <v>-138</v>
+      </c>
+      <c r="MF1">
+        <v>-168</v>
+      </c>
+      <c r="MG1">
+        <v>-163</v>
+      </c>
+      <c r="MH1">
+        <v>-147</v>
+      </c>
+      <c r="MI1">
+        <v>-154</v>
+      </c>
+      <c r="MJ1">
+        <v>-145</v>
+      </c>
+      <c r="MK1">
+        <v>-142</v>
+      </c>
+      <c r="ML1">
+        <v>-158</v>
+      </c>
+      <c r="MM1">
+        <v>-152</v>
+      </c>
+      <c r="MN1">
+        <v>-149</v>
+      </c>
+      <c r="MO1">
+        <v>-166</v>
+      </c>
+      <c r="MP1">
+        <v>-163</v>
+      </c>
+      <c r="MQ1">
+        <v>-142</v>
+      </c>
+      <c r="MR1">
+        <v>-177</v>
+      </c>
+      <c r="MS1">
+        <v>-138</v>
+      </c>
+      <c r="MT1">
+        <v>-138</v>
+      </c>
+      <c r="MU1">
+        <v>-139</v>
+      </c>
+      <c r="MV1">
+        <v>-133</v>
+      </c>
+      <c r="MW1">
+        <v>-159</v>
+      </c>
+      <c r="MX1">
+        <v>-152</v>
+      </c>
+      <c r="MY1">
+        <v>-193</v>
+      </c>
+      <c r="MZ1">
+        <v>-195</v>
+      </c>
+      <c r="NA1">
+        <v>-163</v>
+      </c>
+      <c r="NB1">
+        <v>-167</v>
+      </c>
+      <c r="NC1">
+        <v>-168</v>
+      </c>
+      <c r="ND1">
+        <v>-135</v>
+      </c>
+      <c r="NE1">
+        <v>-142</v>
+      </c>
+      <c r="NF1">
+        <v>-151</v>
+      </c>
+      <c r="NG1">
+        <v>-144</v>
+      </c>
+      <c r="NH1">
+        <v>-154</v>
+      </c>
+      <c r="NI1">
+        <v>-141</v>
+      </c>
+      <c r="NJ1">
+        <v>-177</v>
+      </c>
+      <c r="NK1">
+        <v>-205</v>
+      </c>
+      <c r="NL1">
+        <v>-160</v>
+      </c>
+      <c r="NM1">
+        <v>-159</v>
+      </c>
+      <c r="NN1">
+        <v>-188</v>
+      </c>
+      <c r="NO1">
+        <v>-202</v>
+      </c>
+      <c r="NP1">
+        <v>-178</v>
+      </c>
+      <c r="NQ1">
+        <v>-179</v>
+      </c>
+      <c r="NR1">
+        <v>-206</v>
+      </c>
+      <c r="NS1">
+        <v>-180</v>
+      </c>
+      <c r="NT1">
+        <v>-164</v>
+      </c>
+      <c r="NU1">
+        <v>-154</v>
+      </c>
+      <c r="NV1">
+        <v>-144</v>
+      </c>
+      <c r="NW1">
+        <v>-195</v>
+      </c>
+      <c r="NX1">
+        <v>-144</v>
+      </c>
+      <c r="NY1">
+        <v>-155</v>
+      </c>
+      <c r="NZ1">
+        <v>-144</v>
+      </c>
+      <c r="OA1">
+        <v>-157</v>
+      </c>
+      <c r="OB1">
+        <v>-127</v>
+      </c>
+      <c r="OC1">
+        <v>-157</v>
+      </c>
+      <c r="OD1">
+        <v>-123</v>
+      </c>
+      <c r="OE1">
+        <v>-125</v>
+      </c>
+      <c r="OF1">
+        <v>-149</v>
+      </c>
+      <c r="OG1">
+        <v>-138</v>
+      </c>
+      <c r="OH1">
+        <v>-149</v>
+      </c>
+      <c r="OI1">
+        <v>-128</v>
+      </c>
+      <c r="OJ1">
+        <v>-151</v>
+      </c>
+      <c r="OK1">
+        <v>-152</v>
+      </c>
+      <c r="OL1">
+        <v>-144</v>
+      </c>
+      <c r="OM1">
+        <v>-178</v>
+      </c>
+      <c r="ON1">
+        <v>-169</v>
+      </c>
+      <c r="OO1">
+        <v>-177</v>
+      </c>
+      <c r="OP1">
+        <v>-194</v>
+      </c>
+      <c r="OQ1">
+        <v>-212</v>
+      </c>
+      <c r="OR1">
+        <v>-138</v>
+      </c>
+      <c r="OS1">
+        <v>-160</v>
+      </c>
+      <c r="OT1">
+        <v>-175</v>
+      </c>
+      <c r="OU1">
+        <v>-132</v>
+      </c>
+      <c r="OV1">
+        <v>-170</v>
+      </c>
+      <c r="OW1">
+        <v>-150</v>
+      </c>
+      <c r="OX1">
+        <v>-125</v>
+      </c>
+      <c r="OY1">
+        <v>-217</v>
+      </c>
+      <c r="OZ1">
+        <v>-149</v>
+      </c>
+      <c r="PA1">
+        <v>-135</v>
+      </c>
+      <c r="PB1">
+        <v>-164</v>
+      </c>
+      <c r="PC1">
+        <v>-142</v>
+      </c>
+      <c r="PD1">
+        <v>-151</v>
+      </c>
+      <c r="PE1">
+        <v>-135</v>
+      </c>
+      <c r="PF1">
+        <v>-147</v>
+      </c>
+      <c r="PG1">
+        <v>-156</v>
+      </c>
+      <c r="PH1">
+        <v>-133</v>
+      </c>
+      <c r="PI1">
+        <v>-195</v>
+      </c>
+      <c r="PJ1">
+        <v>-140</v>
+      </c>
+      <c r="PK1">
+        <v>-165</v>
+      </c>
+      <c r="PL1">
+        <v>-156</v>
+      </c>
+      <c r="PM1">
+        <v>-198</v>
+      </c>
+      <c r="PN1">
+        <v>-200</v>
+      </c>
+      <c r="PO1">
+        <v>-133</v>
+      </c>
+      <c r="PP1">
+        <v>-149</v>
+      </c>
+      <c r="PQ1">
+        <v>-138</v>
+      </c>
+      <c r="PR1">
+        <v>-125</v>
+      </c>
+      <c r="PS1">
+        <v>-154</v>
+      </c>
+      <c r="PT1">
+        <v>-166</v>
+      </c>
+      <c r="PU1">
+        <v>-137</v>
+      </c>
+      <c r="PV1">
+        <v>-172</v>
+      </c>
+      <c r="PW1">
+        <v>-136</v>
+      </c>
+      <c r="PX1">
+        <v>-167</v>
+      </c>
+      <c r="PY1">
+        <v>-142</v>
+      </c>
+      <c r="PZ1">
+        <v>-150</v>
+      </c>
+      <c r="QA1">
+        <v>-132</v>
+      </c>
+      <c r="QB1">
+        <v>-160</v>
+      </c>
+      <c r="QC1">
+        <v>-180</v>
+      </c>
+      <c r="QD1">
+        <v>-136</v>
+      </c>
+      <c r="QE1">
+        <v>-173</v>
+      </c>
+      <c r="QF1">
+        <v>-203</v>
+      </c>
+      <c r="QG1">
+        <v>-175</v>
+      </c>
+      <c r="QH1">
+        <v>-138</v>
+      </c>
+      <c r="QI1">
+        <v>-159</v>
+      </c>
+      <c r="QJ1">
+        <v>-151</v>
+      </c>
+      <c r="QK1">
+        <v>-154</v>
+      </c>
+      <c r="QL1">
+        <v>-125</v>
+      </c>
+      <c r="QM1">
+        <v>-171</v>
+      </c>
+      <c r="QN1">
+        <v>-158</v>
+      </c>
+      <c r="QO1">
+        <v>-178</v>
+      </c>
+      <c r="QP1">
+        <v>-132</v>
+      </c>
+      <c r="QQ1">
+        <v>-157</v>
+      </c>
+      <c r="QR1">
+        <v>-138</v>
+      </c>
+      <c r="QS1">
+        <v>-148</v>
+      </c>
+      <c r="QT1">
+        <v>-125</v>
+      </c>
+      <c r="QU1">
+        <v>-125</v>
+      </c>
+      <c r="QV1">
+        <v>-136</v>
+      </c>
+      <c r="QW1">
+        <v>-144</v>
+      </c>
+      <c r="QX1">
+        <v>-159</v>
+      </c>
+      <c r="QY1">
+        <v>-158</v>
+      </c>
+      <c r="QZ1">
+        <v>-163</v>
+      </c>
+      <c r="RA1">
+        <v>-144</v>
+      </c>
+      <c r="RB1">
+        <v>-162</v>
+      </c>
+      <c r="RC1">
+        <v>-144</v>
+      </c>
+      <c r="RD1">
+        <v>-169</v>
+      </c>
+      <c r="RE1">
+        <v>-175</v>
+      </c>
+      <c r="RF1">
+        <v>-159</v>
+      </c>
+      <c r="RG1">
+        <v>-144</v>
+      </c>
+      <c r="RH1">
+        <v>-185</v>
+      </c>
+      <c r="RI1">
+        <v>-185</v>
+      </c>
+      <c r="RJ1">
+        <v>-175</v>
+      </c>
+      <c r="RK1">
+        <v>-171</v>
+      </c>
+      <c r="RL1">
+        <v>-176</v>
+      </c>
+      <c r="RM1">
+        <v>-177</v>
+      </c>
+      <c r="RN1">
+        <v>-161</v>
+      </c>
+      <c r="RO1">
+        <v>-163</v>
+      </c>
+      <c r="RP1">
+        <v>-195</v>
+      </c>
+      <c r="RQ1">
+        <v>-180</v>
+      </c>
+      <c r="RR1">
+        <v>-166</v>
+      </c>
+      <c r="RS1">
+        <v>-167</v>
+      </c>
+      <c r="RT1">
+        <v>-185</v>
+      </c>
+      <c r="RU1">
+        <v>-175</v>
+      </c>
+      <c r="RV1">
+        <v>-141</v>
+      </c>
+      <c r="RW1">
+        <v>-138</v>
+      </c>
+      <c r="RX1">
+        <v>-167</v>
+      </c>
+      <c r="RY1">
+        <v>-159</v>
+      </c>
+      <c r="RZ1">
+        <v>-181</v>
+      </c>
+      <c r="SA1">
+        <v>-142</v>
+      </c>
+      <c r="SB1">
+        <v>-147</v>
+      </c>
+      <c r="SC1">
+        <v>-162</v>
+      </c>
+      <c r="SD1">
+        <v>-146</v>
+      </c>
+      <c r="SE1">
+        <v>-190</v>
+      </c>
+      <c r="SF1">
+        <v>-175</v>
+      </c>
+      <c r="SG1">
+        <v>-170</v>
+      </c>
+      <c r="SH1">
+        <v>-185</v>
+      </c>
+      <c r="SI1">
+        <v>-164</v>
+      </c>
+      <c r="SJ1">
+        <v>-202</v>
+      </c>
+      <c r="SK1">
+        <v>-148</v>
+      </c>
+      <c r="SL1">
+        <v>-128</v>
+      </c>
+      <c r="SM1">
+        <v>-144</v>
+      </c>
+      <c r="SN1">
+        <v>-125</v>
+      </c>
+      <c r="SO1">
+        <v>-185</v>
+      </c>
+      <c r="SP1">
+        <v>-185</v>
+      </c>
+      <c r="SQ1">
+        <v>-195</v>
+      </c>
+      <c r="SR1">
+        <v>-180</v>
+      </c>
+      <c r="SS1">
+        <v>-128</v>
+      </c>
+      <c r="ST1">
+        <v>-146</v>
+      </c>
+      <c r="SU1">
+        <v>-198</v>
+      </c>
+      <c r="SV1">
+        <v>-170</v>
+      </c>
+      <c r="SW1">
+        <v>-177</v>
+      </c>
+      <c r="SX1">
+        <v>-166</v>
+      </c>
+      <c r="SY1">
+        <v>-123</v>
+      </c>
+      <c r="SZ1">
+        <v>-130</v>
+      </c>
+      <c r="TA1">
+        <v>-168</v>
+      </c>
+      <c r="TB1">
+        <v>-157</v>
+      </c>
+      <c r="TC1">
+        <v>-171</v>
+      </c>
+      <c r="TD1">
+        <v>-195</v>
+      </c>
+      <c r="TE1">
+        <v>-177</v>
+      </c>
+      <c r="TF1">
+        <v>-192</v>
+      </c>
+      <c r="TG1">
+        <v>-195</v>
+      </c>
+      <c r="TH1">
+        <v>-212</v>
+      </c>
+      <c r="TI1">
+        <v>-193</v>
+      </c>
+      <c r="TJ1">
+        <v>-123</v>
+      </c>
+      <c r="TK1">
+        <v>-144</v>
+      </c>
+      <c r="TL1">
+        <v>-195</v>
+      </c>
+      <c r="TM1">
+        <v>-185</v>
+      </c>
+      <c r="TN1">
+        <v>-190</v>
+      </c>
+      <c r="TO1">
+        <v>-195</v>
+      </c>
+      <c r="TP1">
+        <v>-172</v>
+      </c>
+      <c r="TQ1">
+        <v>-178</v>
+      </c>
+      <c r="TR1">
+        <v>-123</v>
+      </c>
+      <c r="TS1">
+        <v>-159</v>
+      </c>
+      <c r="TT1">
+        <v>-130</v>
+      </c>
+      <c r="TU1">
+        <v>-168</v>
+      </c>
+      <c r="TV1">
+        <v>-215</v>
+      </c>
+      <c r="TW1">
+        <v>-195</v>
+      </c>
+      <c r="TX1">
+        <v>-180</v>
+      </c>
+      <c r="TY1">
+        <v>-173</v>
+      </c>
+      <c r="TZ1">
+        <v>-175</v>
+      </c>
+      <c r="UA1">
+        <v>-175</v>
+      </c>
+      <c r="UB1">
+        <v>-171</v>
+      </c>
+      <c r="UC1">
+        <v>-154</v>
+      </c>
+      <c r="UD1">
+        <v>-190</v>
+      </c>
+      <c r="UE1">
+        <v>-182</v>
+      </c>
+      <c r="UF1">
+        <v>-140</v>
+      </c>
+      <c r="UG1">
+        <v>-170</v>
+      </c>
+      <c r="UH1">
+        <v>-161</v>
+      </c>
+      <c r="UI1">
+        <v>-125</v>
+      </c>
+      <c r="UJ1">
+        <v>-138</v>
+      </c>
+      <c r="UK1">
+        <v>-151</v>
+      </c>
+      <c r="UL1">
+        <v>-152</v>
+      </c>
+      <c r="UM1">
+        <v>-155</v>
+      </c>
+      <c r="UN1">
+        <v>-185</v>
+      </c>
+      <c r="UO1">
+        <v>-182</v>
+      </c>
+      <c r="UP1">
+        <v>-192</v>
+      </c>
+      <c r="UQ1">
+        <v>-190</v>
+      </c>
+      <c r="UR1">
+        <v>-163</v>
+      </c>
+      <c r="US1">
+        <v>-197</v>
+      </c>
+      <c r="UT1">
+        <v>-182</v>
+      </c>
+      <c r="UU1">
+        <v>-141</v>
+      </c>
+      <c r="UV1">
+        <v>-163</v>
+      </c>
+      <c r="UW1">
+        <v>-207</v>
+      </c>
+      <c r="UX1">
+        <v>-170</v>
+      </c>
+      <c r="UY1">
+        <v>-152</v>
+      </c>
+      <c r="UZ1">
+        <v>-163</v>
+      </c>
+      <c r="VA1">
+        <v>-169</v>
+      </c>
+      <c r="VB1">
+        <v>-143</v>
+      </c>
+      <c r="VC1">
+        <v>-128</v>
+      </c>
+      <c r="VD1">
+        <v>-171</v>
+      </c>
+      <c r="VE1">
+        <v>-136</v>
+      </c>
+      <c r="VF1">
+        <v>-142</v>
+      </c>
+      <c r="VG1">
+        <v>-195</v>
+      </c>
+      <c r="VH1">
+        <v>-163</v>
+      </c>
+      <c r="VI1">
+        <v>-130</v>
+      </c>
+      <c r="VJ1">
+        <v>-128</v>
+      </c>
+      <c r="VK1">
+        <v>-144</v>
+      </c>
+      <c r="VL1">
+        <v>-138</v>
+      </c>
+      <c r="VM1">
+        <v>-178</v>
+      </c>
+      <c r="VN1">
+        <v>-171</v>
+      </c>
+      <c r="VO1">
+        <v>-195</v>
+      </c>
+      <c r="VP1">
+        <v>-140</v>
+      </c>
+      <c r="VQ1">
+        <v>-128</v>
+      </c>
+      <c r="VR1">
+        <v>-195</v>
+      </c>
+      <c r="VS1">
+        <v>-195</v>
+      </c>
+      <c r="VT1">
+        <v>-136</v>
+      </c>
+      <c r="VU1">
+        <v>-132</v>
+      </c>
+      <c r="VV1">
+        <v>-150</v>
+      </c>
+      <c r="VW1">
+        <v>-124</v>
+      </c>
+      <c r="VX1">
+        <v>-126</v>
+      </c>
+      <c r="VY1">
+        <v>-138</v>
+      </c>
+      <c r="VZ1">
+        <v>-175</v>
+      </c>
+      <c r="WA1">
+        <v>-169</v>
+      </c>
+      <c r="WB1">
+        <v>-195</v>
+      </c>
+      <c r="WC1">
+        <v>-158</v>
+      </c>
+      <c r="WD1">
+        <v>-130</v>
+      </c>
+      <c r="WE1">
+        <v>-165</v>
+      </c>
+      <c r="WF1">
+        <v>-200</v>
+      </c>
+      <c r="WG1">
+        <v>-141</v>
+      </c>
+      <c r="WH1">
+        <v>-190</v>
+      </c>
+      <c r="WI1">
+        <v>-159</v>
+      </c>
+      <c r="WJ1">
+        <v>-183</v>
+      </c>
+      <c r="WK1">
+        <v>-183</v>
+      </c>
+      <c r="WL1">
+        <v>-152</v>
+      </c>
+      <c r="WM1">
+        <v>-142</v>
+      </c>
+      <c r="WN1">
+        <v>-159</v>
+      </c>
+      <c r="WO1">
+        <v>-163</v>
+      </c>
+      <c r="WP1">
+        <v>-125</v>
+      </c>
+      <c r="WQ1">
+        <v>-137</v>
+      </c>
+      <c r="WR1">
+        <v>-125</v>
+      </c>
+      <c r="WS1">
+        <v>-125</v>
+      </c>
+      <c r="WT1">
+        <v>-177</v>
+      </c>
+      <c r="WU1">
+        <v>-132</v>
+      </c>
+      <c r="WV1">
+        <v>-139</v>
+      </c>
+      <c r="WW1">
+        <v>-170</v>
+      </c>
+      <c r="WX1">
+        <v>-190</v>
+      </c>
+      <c r="WY1">
+        <v>-200</v>
+      </c>
+      <c r="WZ1">
+        <v>-128</v>
+      </c>
+      <c r="XA1">
+        <v>-151</v>
+      </c>
+      <c r="XB1">
+        <v>-147</v>
+      </c>
+      <c r="XC1">
+        <v>-129</v>
+      </c>
+      <c r="XD1">
+        <v>-200</v>
+      </c>
+      <c r="XE1">
+        <v>-203</v>
+      </c>
+      <c r="XF1">
+        <v>-132</v>
+      </c>
+      <c r="XG1">
+        <v>-124</v>
+      </c>
+      <c r="XH1">
+        <v>-125</v>
+      </c>
+      <c r="XI1">
+        <v>-161</v>
+      </c>
+      <c r="XJ1">
+        <v>-171</v>
+      </c>
+      <c r="XK1">
+        <v>-190</v>
+      </c>
+      <c r="XL1">
+        <v>-128</v>
+      </c>
+      <c r="XM1">
+        <v>-125</v>
+      </c>
+      <c r="XN1">
+        <v>-125</v>
+      </c>
+      <c r="XO1">
+        <v>-177</v>
+      </c>
+      <c r="XP1">
+        <v>-125</v>
+      </c>
+      <c r="XQ1">
+        <v>-125</v>
+      </c>
+      <c r="XR1">
+        <v>-185</v>
+      </c>
+      <c r="XS1">
+        <v>-160</v>
+      </c>
+      <c r="XT1">
+        <v>-183</v>
+      </c>
+      <c r="XU1">
+        <v>-143</v>
+      </c>
+      <c r="XV1">
+        <v>-127</v>
+      </c>
+      <c r="XW1">
+        <v>-135</v>
+      </c>
+      <c r="XX1">
+        <v>-128</v>
+      </c>
+      <c r="XY1">
+        <v>-127</v>
+      </c>
+      <c r="XZ1">
+        <v>-138</v>
+      </c>
+      <c r="YA1">
+        <v>-127</v>
+      </c>
+      <c r="YB1">
+        <v>-166</v>
+      </c>
+      <c r="YC1">
+        <v>-125</v>
+      </c>
+      <c r="YD1">
+        <v>-125</v>
+      </c>
+      <c r="YE1">
+        <v>-159</v>
+      </c>
+      <c r="YF1">
+        <v>-159</v>
+      </c>
+      <c r="YG1">
+        <v>-125</v>
+      </c>
+      <c r="YH1">
+        <v>-142</v>
+      </c>
+      <c r="YI1">
+        <v>-168</v>
+      </c>
+      <c r="YJ1">
+        <v>-132</v>
+      </c>
+      <c r="YK1">
+        <v>-160</v>
+      </c>
+      <c r="YL1">
+        <v>-158</v>
+      </c>
+      <c r="YM1">
+        <v>-130</v>
+      </c>
+      <c r="YN1">
+        <v>-132</v>
+      </c>
+      <c r="YO1">
+        <v>-177</v>
+      </c>
+      <c r="YP1">
+        <v>-195</v>
+      </c>
+      <c r="YQ1">
+        <v>-124</v>
+      </c>
+      <c r="YR1">
+        <v>-204</v>
+      </c>
+      <c r="YS1">
+        <v>-181</v>
+      </c>
+      <c r="YT1">
+        <v>-166</v>
+      </c>
+      <c r="YU1">
+        <v>-125</v>
+      </c>
+      <c r="YV1">
+        <v>-125</v>
+      </c>
+      <c r="YW1">
+        <v>-125</v>
+      </c>
+      <c r="YX1">
+        <v>-125</v>
+      </c>
+      <c r="YY1">
+        <v>-133</v>
+      </c>
+      <c r="YZ1">
+        <v>-195</v>
+      </c>
+      <c r="ZA1">
+        <v>-195</v>
+      </c>
+      <c r="ZB1">
+        <v>-130</v>
+      </c>
+      <c r="ZC1">
+        <v>-195</v>
+      </c>
+      <c r="ZD1">
+        <v>-125</v>
+      </c>
+      <c r="ZE1">
+        <v>-137</v>
+      </c>
+      <c r="ZF1">
+        <v>-132</v>
+      </c>
+      <c r="ZG1">
+        <v>-154</v>
+      </c>
+      <c r="ZH1">
+        <v>-171</v>
+      </c>
+      <c r="ZI1">
+        <v>-125</v>
+      </c>
+      <c r="ZJ1">
+        <v>-125</v>
+      </c>
+      <c r="ZK1">
+        <v>-123</v>
+      </c>
+      <c r="ZL1">
+        <v>-125</v>
+      </c>
+      <c r="ZM1">
+        <v>-138</v>
+      </c>
+      <c r="ZN1">
+        <v>-170</v>
+      </c>
+      <c r="ZO1">
+        <v>-137</v>
+      </c>
+      <c r="ZP1">
+        <v>-158</v>
+      </c>
+      <c r="ZQ1">
+        <v>-176</v>
+      </c>
+      <c r="ZR1">
+        <v>-159</v>
+      </c>
+      <c r="ZS1">
+        <v>-159</v>
+      </c>
+      <c r="ZT1">
+        <v>-144</v>
+      </c>
+      <c r="ZU1">
+        <v>-125</v>
+      </c>
+      <c r="ZV1">
+        <v>-125</v>
+      </c>
+      <c r="ZW1">
+        <v>-152</v>
+      </c>
+      <c r="ZX1">
+        <v>-123</v>
+      </c>
+      <c r="ZY1">
+        <v>-144</v>
+      </c>
+      <c r="ZZ1">
+        <v>-125</v>
+      </c>
+      <c r="AAA1">
+        <v>-138</v>
+      </c>
+      <c r="AAB1">
+        <v>-125</v>
+      </c>
+      <c r="AAC1">
+        <v>-127</v>
+      </c>
+      <c r="AAD1">
+        <v>-138</v>
+      </c>
+      <c r="AAE1">
+        <v>-125</v>
+      </c>
+      <c r="AAF1">
+        <v>-125</v>
+      </c>
+      <c r="AAG1">
+        <v>-124</v>
+      </c>
+      <c r="AAH1">
+        <v>-137</v>
+      </c>
+      <c r="AAI1">
+        <v>-125</v>
+      </c>
+      <c r="AAJ1">
+        <v>-128</v>
+      </c>
+      <c r="AAK1">
+        <v>-158</v>
+      </c>
+      <c r="AAL1">
+        <v>-159</v>
+      </c>
+      <c r="AAM1">
+        <v>-189</v>
+      </c>
+      <c r="AAN1">
+        <v>-125</v>
+      </c>
+      <c r="AAO1">
+        <v>-123</v>
+      </c>
+      <c r="AAP1">
+        <v>-125</v>
+      </c>
+      <c r="AAQ1">
+        <v>-125</v>
+      </c>
+      <c r="AAR1">
+        <v>-125</v>
+      </c>
+      <c r="AAS1">
+        <v>-125</v>
+      </c>
+      <c r="AAT1">
+        <v>-125</v>
+      </c>
+      <c r="AAU1">
+        <v>-138</v>
+      </c>
+      <c r="AAV1">
+        <v>-128</v>
+      </c>
+      <c r="AAW1">
+        <v>-125</v>
+      </c>
+      <c r="AAX1">
+        <v>-125</v>
+      </c>
+      <c r="AAY1">
+        <v>-125</v>
+      </c>
+      <c r="AAZ1">
+        <v>-127</v>
+      </c>
+      <c r="ABA1">
+        <v>-142</v>
+      </c>
+      <c r="ABB1">
+        <v>-124</v>
+      </c>
+      <c r="ABC1">
+        <v>-128</v>
+      </c>
+      <c r="ABD1">
+        <v>-125</v>
+      </c>
+      <c r="ABE1">
+        <v>-142</v>
+      </c>
+      <c r="ABF1">
+        <v>-132</v>
+      </c>
+      <c r="ABG1">
+        <v>-128</v>
+      </c>
+      <c r="ABH1">
+        <v>-125</v>
+      </c>
+      <c r="ABI1">
+        <v>-130</v>
+      </c>
+      <c r="ABJ1">
+        <v>-132</v>
+      </c>
+      <c r="ABK1">
+        <v>-138</v>
+      </c>
+      <c r="ABL1">
+        <v>-130</v>
+      </c>
+      <c r="ABM1">
+        <v>-125</v>
+      </c>
+      <c r="ABN1">
+        <v>-125</v>
+      </c>
+      <c r="ABO1">
+        <v>-125</v>
+      </c>
+      <c r="ABP1">
+        <v>-124</v>
+      </c>
+      <c r="ABQ1">
+        <v>-144</v>
+      </c>
+      <c r="ABR1">
+        <v>-160</v>
+      </c>
+      <c r="ABS1">
+        <v>-193</v>
+      </c>
+      <c r="ABT1">
+        <v>-125</v>
+      </c>
+      <c r="ABU1">
+        <v>-168</v>
+      </c>
+      <c r="ABV1">
+        <v>-168</v>
+      </c>
+      <c r="ABW1">
+        <v>-168</v>
+      </c>
+      <c r="ABX1">
+        <v>-175</v>
+      </c>
+      <c r="ABY1">
+        <v>-198</v>
+      </c>
+      <c r="ABZ1">
+        <v>-175</v>
+      </c>
+      <c r="ACA1">
+        <v>-195</v>
+      </c>
+      <c r="ACB1">
+        <v>-125</v>
+      </c>
+      <c r="ACC1">
+        <v>-127</v>
+      </c>
+      <c r="ACD1">
+        <v>-124</v>
+      </c>
+      <c r="ACE1">
+        <v>-125</v>
+      </c>
+      <c r="ACF1">
+        <v>-171</v>
+      </c>
+      <c r="ACG1">
+        <v>-148</v>
+      </c>
+      <c r="ACH1">
+        <v>-141</v>
+      </c>
+      <c r="ACI1">
+        <v>-125</v>
+      </c>
+      <c r="ACJ1">
+        <v>-177</v>
+      </c>
+      <c r="ACK1">
+        <v>-168</v>
+      </c>
+      <c r="ACL1">
+        <v>-168</v>
+      </c>
+      <c r="ACM1">
+        <v>-149</v>
+      </c>
+      <c r="ACN1">
+        <v>-125</v>
+      </c>
+      <c r="ACO1">
+        <v>-132</v>
+      </c>
+      <c r="ACP1">
+        <v>-125</v>
+      </c>
+      <c r="ACQ1">
+        <v>-146</v>
+      </c>
+      <c r="ACR1">
+        <v>-125</v>
+      </c>
+      <c r="ACS1">
+        <v>-147</v>
+      </c>
+      <c r="ACT1">
+        <v>-149</v>
+      </c>
+      <c r="ACU1">
+        <v>-195</v>
+      </c>
+      <c r="ACV1">
+        <v>-195</v>
+      </c>
+      <c r="ACW1">
+        <v>-195</v>
+      </c>
+      <c r="ACX1">
+        <v>-132</v>
+      </c>
+      <c r="ACY1">
+        <v>-125</v>
+      </c>
+      <c r="ACZ1">
+        <v>-127</v>
+      </c>
+      <c r="ADA1">
+        <v>-185</v>
+      </c>
+      <c r="ADB1">
+        <v>-183</v>
+      </c>
+      <c r="ADC1">
+        <v>-195</v>
+      </c>
+      <c r="ADD1">
+        <v>-195</v>
+      </c>
+      <c r="ADE1">
+        <v>-195</v>
+      </c>
+      <c r="ADF1">
+        <v>-181</v>
+      </c>
+      <c r="ADG1">
+        <v>-195</v>
+      </c>
+      <c r="ADH1">
+        <v>-202</v>
+      </c>
+      <c r="ADI1">
+        <v>-195</v>
+      </c>
+      <c r="ADJ1">
+        <v>-125</v>
+      </c>
+      <c r="ADK1">
+        <v>-125</v>
+      </c>
+      <c r="ADL1">
+        <v>-202</v>
+      </c>
+      <c r="ADM1">
+        <v>-195</v>
+      </c>
+      <c r="ADN1">
+        <v>-185</v>
+      </c>
+      <c r="ADO1">
+        <v>-183</v>
+      </c>
+      <c r="ADP1">
+        <v>-190</v>
+      </c>
+      <c r="ADQ1">
+        <v>-181</v>
+      </c>
+      <c r="ADR1">
+        <v>-125</v>
+      </c>
+      <c r="ADS1">
+        <v>-186</v>
+      </c>
+      <c r="ADT1">
+        <v>-195</v>
+      </c>
+      <c r="ADU1">
+        <v>-163</v>
+      </c>
+      <c r="ADV1">
+        <v>-195</v>
+      </c>
+      <c r="ADW1">
+        <v>-125</v>
+      </c>
+      <c r="ADX1">
+        <v>-139</v>
+      </c>
+      <c r="ADY1">
+        <v>-132</v>
+      </c>
+      <c r="ADZ1">
+        <v>-148</v>
+      </c>
+      <c r="AEA1">
+        <v>-135</v>
+      </c>
+      <c r="AEB1">
+        <v>-123</v>
+      </c>
+      <c r="AEC1">
+        <v>-125</v>
+      </c>
+      <c r="AED1">
+        <v>-125</v>
+      </c>
+      <c r="AEE1">
+        <v>-125</v>
+      </c>
+      <c r="AEF1">
+        <v>-125</v>
+      </c>
+      <c r="AEG1">
+        <v>-125</v>
+      </c>
+      <c r="AEH1">
+        <v>-125</v>
+      </c>
+      <c r="AEI1">
+        <v>-125</v>
+      </c>
+      <c r="AEJ1">
+        <v>-128</v>
+      </c>
+      <c r="AEK1">
+        <v>-138</v>
+      </c>
+      <c r="AEL1">
+        <v>-128</v>
+      </c>
+      <c r="AEM1">
+        <v>-125</v>
+      </c>
+      <c r="AEN1">
+        <v>-142</v>
+      </c>
+      <c r="AEO1">
+        <v>-128</v>
+      </c>
+      <c r="AEP1">
+        <v>-158</v>
+      </c>
+      <c r="AEQ1">
+        <v>-125</v>
+      </c>
+      <c r="AER1">
+        <v>-125</v>
+      </c>
+      <c r="AES1">
+        <v>-128</v>
+      </c>
+      <c r="AET1">
+        <v>-125</v>
+      </c>
+      <c r="AEU1">
+        <v>-125</v>
+      </c>
+      <c r="AEV1">
+        <v>-125</v>
+      </c>
+      <c r="AEW1">
+        <v>-125</v>
+      </c>
+      <c r="AEX1">
+        <v>-125</v>
+      </c>
+      <c r="AEY1">
+        <v>-125</v>
+      </c>
+      <c r="AEZ1">
+        <v>-125</v>
+      </c>
+      <c r="AFA1">
+        <v>-138</v>
+      </c>
+      <c r="AFB1">
+        <v>-132</v>
+      </c>
+      <c r="AFC1">
+        <v>-125</v>
+      </c>
+      <c r="AFD1">
+        <v>-125</v>
+      </c>
+      <c r="AFE1">
+        <v>-175</v>
+      </c>
+      <c r="AFF1">
+        <v>-177</v>
+      </c>
+      <c r="AFG1">
+        <v>-125</v>
+      </c>
+      <c r="AFH1">
+        <v>-125</v>
+      </c>
+      <c r="AFI1">
+        <v>-138</v>
+      </c>
+      <c r="AFJ1">
+        <v>-125</v>
+      </c>
+      <c r="AFK1">
+        <v>-125</v>
+      </c>
+      <c r="AFL1">
+        <v>-142</v>
+      </c>
+      <c r="AFM1">
+        <v>-142</v>
+      </c>
+      <c r="AFN1">
+        <v>-125</v>
+      </c>
+      <c r="AFO1">
+        <v>-127</v>
+      </c>
+      <c r="AFP1">
+        <v>-125</v>
+      </c>
+      <c r="AFQ1">
+        <v>-125</v>
+      </c>
+      <c r="AFR1">
+        <v>-125</v>
+      </c>
+      <c r="AFS1">
+        <v>-125</v>
+      </c>
+      <c r="AFT1">
+        <v>-125</v>
+      </c>
+      <c r="AFU1">
+        <v>-125</v>
+      </c>
+      <c r="AFV1">
+        <v>-125</v>
+      </c>
+      <c r="AFW1">
+        <v>-125</v>
+      </c>
+      <c r="AFX1">
+        <v>-125</v>
+      </c>
+      <c r="AFY1">
+        <v>-195</v>
+      </c>
+      <c r="AFZ1">
+        <v>-125</v>
+      </c>
+      <c r="AGA1">
+        <v>-125</v>
+      </c>
+      <c r="AGB1">
+        <v>-125</v>
+      </c>
+      <c r="AGC1">
+        <v>-125</v>
+      </c>
+      <c r="AGD1">
+        <v>-125</v>
+      </c>
+      <c r="AGE1">
+        <v>-125</v>
+      </c>
+      <c r="AGF1">
+        <v>-125</v>
+      </c>
+      <c r="AGG1">
+        <v>-125</v>
+      </c>
+      <c r="AGH1">
+        <v>-130</v>
+      </c>
+      <c r="AGI1">
+        <v>-125</v>
+      </c>
+      <c r="AGJ1">
+        <v>-130</v>
+      </c>
+      <c r="AGK1">
+        <v>-138</v>
+      </c>
+      <c r="AGL1">
+        <v>-125</v>
+      </c>
+      <c r="AGM1">
+        <v>-125</v>
+      </c>
+      <c r="AGN1">
+        <v>-175</v>
+      </c>
+      <c r="AGO1">
+        <v>-195</v>
+      </c>
+      <c r="AGP1">
+        <v>-125</v>
+      </c>
+      <c r="AGQ1">
+        <v>-125</v>
+      </c>
+      <c r="AGR1">
+        <v>-125</v>
+      </c>
+      <c r="AGS1">
+        <v>-125</v>
+      </c>
+      <c r="AGT1">
+        <v>-125</v>
+      </c>
+      <c r="AGU1">
+        <v>-125</v>
+      </c>
+      <c r="AGV1">
+        <v>-125</v>
+      </c>
+      <c r="AGW1">
+        <v>-127</v>
+      </c>
+      <c r="AGX1">
+        <v>-125</v>
+      </c>
+      <c r="AGY1">
+        <v>-125</v>
+      </c>
+      <c r="AGZ1">
+        <v>-125</v>
+      </c>
+      <c r="AHA1">
+        <v>-125</v>
+      </c>
+      <c r="AHB1">
+        <v>-202</v>
+      </c>
+      <c r="AHC1">
+        <v>-125</v>
+      </c>
+      <c r="AHD1">
+        <v>-125</v>
+      </c>
+      <c r="AHE1">
+        <v>-125</v>
+      </c>
+      <c r="AHF1">
+        <v>-125</v>
+      </c>
+      <c r="AHG1">
+        <v>-195</v>
+      </c>
+      <c r="AHH1">
+        <v>-195</v>
+      </c>
+      <c r="AHI1">
+        <v>-138</v>
+      </c>
+      <c r="AHJ1">
+        <v>-125</v>
+      </c>
+      <c r="AHK1">
+        <v>-138</v>
+      </c>
+      <c r="AHL1">
+        <v>-125</v>
+      </c>
+      <c r="AHM1">
+        <v>-125</v>
+      </c>
+      <c r="AHN1">
+        <v>-125</v>
+      </c>
+      <c r="AHO1">
+        <v>-125</v>
+      </c>
+      <c r="AHP1">
+        <v>-125</v>
+      </c>
+      <c r="AHQ1">
+        <v>-172</v>
+      </c>
+      <c r="AHR1">
+        <v>-149</v>
+      </c>
+      <c r="AHS1">
+        <v>-181</v>
+      </c>
+      <c r="AHT1">
+        <v>-195</v>
+      </c>
+      <c r="AHU1">
+        <v>-125</v>
+      </c>
+      <c r="AHV1">
+        <v>-125</v>
+      </c>
+      <c r="AHW1">
+        <v>-125</v>
+      </c>
+      <c r="AHX1">
+        <v>-125</v>
+      </c>
+      <c r="AHY1">
+        <v>-125</v>
+      </c>
+      <c r="AHZ1">
+        <v>-125</v>
+      </c>
+      <c r="AIA1">
+        <v>-125</v>
+      </c>
+      <c r="AIB1">
+        <v>-125</v>
+      </c>
+      <c r="AIC1">
+        <v>-125</v>
+      </c>
+      <c r="AID1">
+        <v>-142</v>
+      </c>
+      <c r="AIE1">
+        <v>-125</v>
+      </c>
+      <c r="AIF1">
+        <v>-185</v>
+      </c>
+      <c r="AIG1">
+        <v>-123</v>
+      </c>
+      <c r="AIH1">
+        <v>-125</v>
+      </c>
+      <c r="AII1">
+        <v>-125</v>
+      </c>
+      <c r="AIJ1">
+        <v>-125</v>
+      </c>
+      <c r="AIK1">
+        <v>-125</v>
+      </c>
+      <c r="AIL1">
+        <v>-125</v>
+      </c>
+      <c r="AIM1">
+        <v>-125</v>
+      </c>
+      <c r="AIN1">
+        <v>-125</v>
+      </c>
+      <c r="AIO1">
+        <v>-125</v>
+      </c>
+      <c r="AIP1">
+        <v>-125</v>
+      </c>
+      <c r="AIQ1">
+        <v>-125</v>
+      </c>
+      <c r="AIR1">
+        <v>-125</v>
+      </c>
+      <c r="AIS1">
+        <v>-125</v>
+      </c>
+      <c r="AIT1">
+        <v>-125</v>
+      </c>
+      <c r="AIU1">
+        <v>-150</v>
+      </c>
+      <c r="AIV1">
+        <v>-128</v>
+      </c>
+      <c r="AIW1">
+        <v>-125</v>
+      </c>
+      <c r="AIX1">
+        <v>-125</v>
+      </c>
+      <c r="AIY1">
+        <v>-127</v>
+      </c>
+      <c r="AIZ1">
+        <v>-125</v>
+      </c>
+      <c r="AJA1">
+        <v>-128</v>
+      </c>
+      <c r="AJB1">
+        <v>-157</v>
+      </c>
+      <c r="AJC1">
+        <v>-125</v>
+      </c>
+      <c r="AJD1">
+        <v>-125</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:940">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -496,7 +3292,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:940">
       <c r="A4">
         <v>2</v>
       </c>
@@ -537,55 +3333,55 @@
         <v>0.00025</v>
       </c>
       <c r="N4">
-        <v>5000</v>
+        <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:940">
       <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="B6">
-        <v>-426</v>
+        <v>-123</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:940">
       <c r="A8" t="s">
         <v>19</v>
       </c>
       <c r="B8">
-        <v>698.125</v>
+        <v>106.4085106382979</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
       </c>
       <c r="D8">
-        <v>777</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:940">
       <c r="A9" t="s">
         <v>21</v>
       </c>
       <c r="B9">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
       </c>
       <c r="F9">
-        <v>912</v>
+        <v>919</v>
       </c>
       <c r="G9" t="s">
         <v>24</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
